--- a/SchedulingData/dynamic11/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_2.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76.3</v>
+        <v>62.7</v>
       </c>
       <c r="E2" t="n">
-        <v>25.52</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>50.9</v>
       </c>
       <c r="E3" t="n">
-        <v>26.28</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.9</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>26.1</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>50.9</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>26.92</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="6">
@@ -542,36 +542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60.9</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>114.26</v>
+        <v>160.8</v>
       </c>
       <c r="E6" t="n">
-        <v>23.364</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>160.8</v>
       </c>
       <c r="D7" t="n">
-        <v>128.32</v>
+        <v>233.3</v>
       </c>
       <c r="E7" t="n">
-        <v>21.968</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76.3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>114.96</v>
+        <v>58.42</v>
       </c>
       <c r="E8" t="n">
-        <v>22.784</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>114.96</v>
+        <v>62.7</v>
       </c>
       <c r="D9" t="n">
-        <v>163.18</v>
+        <v>119.46</v>
       </c>
       <c r="E9" t="n">
-        <v>19.592</v>
+        <v>22.864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.28</v>
+        <v>74.12</v>
       </c>
       <c r="E10" t="n">
-        <v>26.152</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>114.26</v>
+        <v>58.42</v>
       </c>
       <c r="D11" t="n">
-        <v>155.04</v>
+        <v>107.22</v>
       </c>
       <c r="E11" t="n">
-        <v>20.416</v>
+        <v>24.068</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55.28</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>126.48</v>
+        <v>43.4</v>
       </c>
       <c r="E12" t="n">
-        <v>21.672</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42.7</v>
+        <v>74.12</v>
       </c>
       <c r="D13" t="n">
-        <v>109.26</v>
+        <v>134.84</v>
       </c>
       <c r="E13" t="n">
-        <v>22.864</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>163.18</v>
+        <v>107.22</v>
       </c>
       <c r="D14" t="n">
-        <v>210.88</v>
+        <v>144.92</v>
       </c>
       <c r="E14" t="n">
-        <v>16.952</v>
+        <v>21.428</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>109.26</v>
+        <v>134.84</v>
       </c>
       <c r="D15" t="n">
-        <v>143.26</v>
+        <v>203.24</v>
       </c>
       <c r="E15" t="n">
-        <v>20.104</v>
+        <v>18.636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>210.88</v>
+        <v>203.24</v>
       </c>
       <c r="D16" t="n">
-        <v>286.72</v>
+        <v>267.56</v>
       </c>
       <c r="E16" t="n">
-        <v>13.468</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="17">
@@ -751,93 +751,93 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>119.46</v>
       </c>
       <c r="D17" t="n">
-        <v>58.4</v>
+        <v>190.2</v>
       </c>
       <c r="E17" t="n">
-        <v>26.36</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>143.26</v>
+        <v>43.4</v>
       </c>
       <c r="D18" t="n">
-        <v>197.06</v>
+        <v>119.06</v>
       </c>
       <c r="E18" t="n">
-        <v>15.364</v>
+        <v>22.904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>126.48</v>
+        <v>190.2</v>
       </c>
       <c r="D19" t="n">
-        <v>174.5</v>
+        <v>235.8</v>
       </c>
       <c r="E19" t="n">
-        <v>18.5</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>58.4</v>
+        <v>267.56</v>
       </c>
       <c r="D20" t="n">
-        <v>117.8</v>
+        <v>334.04</v>
       </c>
       <c r="E20" t="n">
-        <v>21.56</v>
+        <v>10.796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>117.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>190.3</v>
+        <v>157.88</v>
       </c>
       <c r="E21" t="n">
-        <v>17.4</v>
+        <v>19.632</v>
       </c>
     </row>
     <row r="22">
@@ -846,74 +846,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>174.5</v>
+        <v>119.06</v>
       </c>
       <c r="D22" t="n">
-        <v>229.8</v>
+        <v>180.06</v>
       </c>
       <c r="E22" t="n">
-        <v>15.08</v>
+        <v>18.424</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>155.04</v>
+        <v>144.92</v>
       </c>
       <c r="D23" t="n">
-        <v>214.82</v>
+        <v>214.4</v>
       </c>
       <c r="E23" t="n">
-        <v>16.568</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>229.8</v>
+        <v>157.88</v>
       </c>
       <c r="D24" t="n">
-        <v>305.88</v>
+        <v>217.66</v>
       </c>
       <c r="E24" t="n">
-        <v>11.552</v>
+        <v>15.784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>128.32</v>
+        <v>180.06</v>
       </c>
       <c r="D25" t="n">
-        <v>193.64</v>
+        <v>261.62</v>
       </c>
       <c r="E25" t="n">
-        <v>18.536</v>
+        <v>14.368</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>214.82</v>
+        <v>233.3</v>
       </c>
       <c r="D26" t="n">
-        <v>280.92</v>
+        <v>267.06</v>
       </c>
       <c r="E26" t="n">
-        <v>13.048</v>
+        <v>13.824</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>193.64</v>
+        <v>217.66</v>
       </c>
       <c r="D27" t="n">
-        <v>274.3</v>
+        <v>283.66</v>
       </c>
       <c r="E27" t="n">
-        <v>15.08</v>
+        <v>11.304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>197.06</v>
+        <v>261.62</v>
       </c>
       <c r="D28" t="n">
-        <v>275.08</v>
+        <v>310.28</v>
       </c>
       <c r="E28" t="n">
-        <v>11.152</v>
+        <v>11.632</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>286.72</v>
+        <v>214.4</v>
       </c>
       <c r="D29" t="n">
-        <v>367.82</v>
+        <v>287.9</v>
       </c>
       <c r="E29" t="n">
-        <v>8.988</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>190.3</v>
+        <v>235.8</v>
       </c>
       <c r="D30" t="n">
-        <v>247.06</v>
+        <v>306.84</v>
       </c>
       <c r="E30" t="n">
-        <v>13.344</v>
+        <v>13.496</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>305.88</v>
+        <v>310.28</v>
       </c>
       <c r="D31" t="n">
-        <v>366.32</v>
+        <v>358.5</v>
       </c>
       <c r="E31" t="n">
-        <v>9.087999999999999</v>
+        <v>8.44</v>
       </c>
     </row>
   </sheetData>
